--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43069,6 +43069,41 @@
         <v>737900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1696500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43104,6 +43104,41 @@
         <v>1696500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>4666300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43139,6 +43139,41 @@
         <v>4666300</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>4845800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43174,6 +43174,41 @@
         <v>4845800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>3083900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43209,6 +43209,41 @@
         <v>3083900</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1962500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43244,6 +43244,41 @@
         <v>1962500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1901300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43279,6 +43279,41 @@
         <v>1901300</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>2044400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43314,6 +43314,41 @@
         <v>2044400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1906500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43349,6 +43349,41 @@
         <v>1906500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>3715400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43384,6 +43384,41 @@
         <v>3715400</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1771800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43419,6 +43419,41 @@
         <v>1771800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1751200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43454,6 +43454,41 @@
         <v>1751200</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>2884500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43489,6 +43489,76 @@
         <v>2884500</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1233700</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1468100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43559,6 +43559,76 @@
         <v>1468100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1009300</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>910100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43629,6 +43629,41 @@
         <v>910100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>380500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43664,6 +43664,41 @@
         <v>380500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>370900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43699,6 +43699,41 @@
         <v>370900</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>469200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43734,6 +43734,41 @@
         <v>469200</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1323800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43769,6 +43769,76 @@
         <v>1323800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>754400</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>879200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43839,6 +43839,41 @@
         <v>879200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>931800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43874,6 +43874,41 @@
         <v>931800</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1325800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2067"/>
+  <dimension ref="A1:I2068"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72819,6 +72819,41 @@
         <v>1325800</v>
       </c>
     </row>
+    <row r="2068">
+      <c r="A2068" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2068" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D2068" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E2068" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F2068" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G2068" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H2068" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I2068" t="n">
+        <v>1230500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2068"/>
+  <dimension ref="A1:I2069"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72854,6 +72854,41 @@
         <v>1230500</v>
       </c>
     </row>
+    <row r="2069">
+      <c r="A2069" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2069" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D2069" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E2069" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F2069" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G2069" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H2069" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I2069" t="n">
+        <v>1070500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2069"/>
+  <dimension ref="A1:I2070"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72889,6 +72889,41 @@
         <v>1070500</v>
       </c>
     </row>
+    <row r="2070">
+      <c r="A2070" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2070" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E2070" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F2070" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G2070" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H2070" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I2070" t="n">
+        <v>887400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2070"/>
+  <dimension ref="A1:I2071"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72924,6 +72924,41 @@
         <v>887400</v>
       </c>
     </row>
+    <row r="2071">
+      <c r="A2071" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2071" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D2071" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E2071" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F2071" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G2071" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H2071" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2071" t="n">
+        <v>922400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2071"/>
+  <dimension ref="A1:I2072"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72959,6 +72959,41 @@
         <v>922400</v>
       </c>
     </row>
+    <row r="2072">
+      <c r="A2072" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2072" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D2072" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E2072" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2072" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G2072" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H2072" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I2072" t="n">
+        <v>1138100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2072"/>
+  <dimension ref="A1:I2073"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72994,6 +72994,41 @@
         <v>1138100</v>
       </c>
     </row>
+    <row r="2073">
+      <c r="A2073" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2073" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D2073" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E2073" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2073" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G2073" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H2073" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2073" t="n">
+        <v>921100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2073"/>
+  <dimension ref="A1:I2074"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73029,6 +73029,41 @@
         <v>921100</v>
       </c>
     </row>
+    <row r="2074">
+      <c r="A2074" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2074" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D2074" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E2074" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F2074" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G2074" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H2074" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2074" t="n">
+        <v>321900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2074"/>
+  <dimension ref="A1:I2075"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73064,6 +73064,41 @@
         <v>321900</v>
       </c>
     </row>
+    <row r="2075">
+      <c r="A2075" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2075" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D2075" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E2075" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2075" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G2075" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H2075" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2075" t="n">
+        <v>2194000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2075"/>
+  <dimension ref="A1:I2076"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73099,6 +73099,41 @@
         <v>2194000</v>
       </c>
     </row>
+    <row r="2076">
+      <c r="A2076" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2076" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D2076" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E2076" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F2076" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G2076" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2076" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I2076" t="n">
+        <v>1400800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2076"/>
+  <dimension ref="A1:I2077"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73134,6 +73134,41 @@
         <v>1400800</v>
       </c>
     </row>
+    <row r="2077">
+      <c r="A2077" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2077" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D2077" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E2077" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F2077" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G2077" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H2077" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I2077" t="n">
+        <v>1449900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2077"/>
+  <dimension ref="A1:I2078"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73169,6 +73169,41 @@
         <v>1449900</v>
       </c>
     </row>
+    <row r="2078">
+      <c r="A2078" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2078" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D2078" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E2078" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F2078" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G2078" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H2078" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I2078" t="n">
+        <v>600200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2078"/>
+  <dimension ref="A1:I2079"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73204,6 +73204,41 @@
         <v>600200</v>
       </c>
     </row>
+    <row r="2079">
+      <c r="A2079" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2079" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D2079" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E2079" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F2079" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G2079" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H2079" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I2079" t="n">
+        <v>643000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2079"/>
+  <dimension ref="A1:I2080"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73239,6 +73239,41 @@
         <v>643000</v>
       </c>
     </row>
+    <row r="2080">
+      <c r="A2080" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2080" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D2080" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E2080" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F2080" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G2080" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H2080" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I2080" t="n">
+        <v>849200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2080"/>
+  <dimension ref="A1:I2081"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73274,6 +73274,41 @@
         <v>849200</v>
       </c>
     </row>
+    <row r="2081">
+      <c r="A2081" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2081" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D2081" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E2081" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F2081" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G2081" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H2081" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2081" t="n">
+        <v>431900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5000.xlsx
+++ b/data/5000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2081"/>
+  <dimension ref="A1:I2082"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73309,6 +73309,41 @@
         <v>431900</v>
       </c>
     </row>
+    <row r="2082">
+      <c r="A2082" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2082" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D2082" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="E2082" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F2082" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G2082" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H2082" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I2082" t="n">
+        <v>178600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
